--- a/biology/Zoologie/Granulifusus_dondani/Granulifusus_dondani.xlsx
+++ b/biology/Zoologie/Granulifusus_dondani/Granulifusus_dondani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Granulifusus dondani est une espèce d'escargots de mer de la famille des Fasciolariidae[1] endémique des Philippines[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Granulifusus dondani est une espèce d'escargots de mer de la famille des Fasciolariidae endémique des Philippines.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Granulifusus dondani a été décrite en 2003 par le mathématicien et malacologiste américain Martin Avery Snyder (d) (1943-)[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Granulifusus dondani a été décrite en 2003 par le mathématicien et malacologiste américain Martin Avery Snyder (d) (1943-),.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Granulifusus dondani est endémique des Philippines[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Granulifusus dondani est endémique des Philippines.
 </t>
         </is>
       </c>
@@ -599,7 +617,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) M. A. Snyder, « The genera Simplicifusus and Granulifusus (Gastropoda: Fasciolariidae) with the description of two new species in Granulifusus », Journal of Conchology, Londres, vol. 38, no 1,‎ août 2003, p. 87-93 (ISSN 0022-0019, OCLC 6988449)</t>
         </is>
